--- a/public/data/db-source/tag.xlsx
+++ b/public/data/db-source/tag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3E4EE-3C70-104A-96E9-BC13E586D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735AF30F-4FC1-474D-B558-8F226889571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Les données personnelles sont toute information permettant d'identifier directement ou indirectement une personne physique, comme le nom, l'adresse, l'email ou des données sensibles telles que l'orientation sexuelle ou les données biométriques. Elles sont protégées par des lois visant à garantir leur confidentialité et leur sécurité.</t>
   </si>
   <si>
-    <t>Les données sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
-  </si>
-  <si>
     <t>Les données pseudonymisées sont des données personnelles qui ont été modifiées de manière à ce qu'elles ne puissent plus être attribuées à une personne spécifique sans informations supplémentaires. Cela permet de réduire les risques pour la vie privée, tout en conservant la possibilité de réidentifier les données si nécessaire, en gardant ces informations complémentaires séparées et protégées.</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>pdf_online, bevnat-info</t>
+  </si>
+  <si>
+    <t>Les données 2 sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -927,13 +927,13 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -963,10 +963,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -977,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -992,546 +992,546 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1"/>
     </row>

--- a/public/data/db-source/tag.xlsx
+++ b/public/data/db-source/tag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735AF30F-4FC1-474D-B558-8F226889571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3790C-AC3A-FF40-8B05-01307E179268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,13 +487,13 @@
     <t>Images aériennes sous partie 1</t>
   </si>
   <si>
-    <t>Images aériennes sous partie 2</t>
-  </si>
-  <si>
     <t>pdf_online, bevnat-info</t>
   </si>
   <si>
     <t>Les données 2 sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
+  </si>
+  <si>
+    <t>Images aériennes sous partie 2.1</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E43" s="1"/>
     </row>

--- a/public/data/db-source/tag.xlsx
+++ b/public/data/db-source/tag.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3790C-AC3A-FF40-8B05-01307E179268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8A04F-C75B-6F49-A3C0-699EAE0B2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -475,9 +475,6 @@
     <t>doc_ids</t>
   </si>
   <si>
-    <t>pdf_online</t>
-  </si>
-  <si>
     <t>images_aeriennes_1</t>
   </si>
   <si>
@@ -487,13 +484,37 @@
     <t>Images aériennes sous partie 1</t>
   </si>
   <si>
-    <t>pdf_online, bevnat-info</t>
-  </si>
-  <si>
     <t>Les données 2 sensibles sont des catégories particulières de données personnelles qui révèlent des informations hautement confidentielles, comme l'origine raciale ou ethnique, les opinions politiques, les croyances religieuses, la santé, la vie sexuelle, ou les données biométriques. Leur traitement est soumis à des règles strictes pour éviter toute discrimination ou atteinte à la vie privée.</t>
   </si>
   <si>
     <t>Images aériennes sous partie 2.1</t>
+  </si>
+  <si>
+    <t>statpop-info</t>
+  </si>
+  <si>
+    <t>pdf-wiki</t>
+  </si>
+  <si>
+    <t>pdf_online, bevnat-variable</t>
+  </si>
+  <si>
+    <t>pdf-wiki, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>bevnat-variable</t>
+  </si>
+  <si>
+    <t>statpop-info, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>pop-com-1, pdf_online</t>
+  </si>
+  <si>
+    <t>tourisme-exemple</t>
+  </si>
+  <si>
+    <t>bevnat-info, tourisme-exemple</t>
   </si>
 </sst>
 </file>
@@ -883,8 +904,8 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -923,7 +944,6 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -935,7 +955,6 @@
       <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -950,7 +969,6 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -963,10 +981,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -982,7 +997,9 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -997,7 +1014,9 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1012,8 +1031,8 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>128</v>
+      <c r="E8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1029,7 +1048,6 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1044,7 +1062,6 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1059,7 +1076,6 @@
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1074,7 +1090,9 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1089,7 +1107,6 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1104,7 +1121,9 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1119,7 +1138,6 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1134,7 +1152,6 @@
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1149,7 +1166,6 @@
       <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1164,7 +1180,9 @@
       <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1179,7 +1197,9 @@
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1194,7 +1214,6 @@
       <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1209,7 +1228,6 @@
       <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1224,7 +1242,9 @@
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1239,7 +1259,6 @@
       <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1254,7 +1273,6 @@
       <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1269,7 +1287,6 @@
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1284,7 +1301,6 @@
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1299,7 +1315,6 @@
       <c r="D27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1314,7 +1329,6 @@
       <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1329,7 +1343,6 @@
       <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1344,7 +1357,6 @@
       <c r="D30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="188" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1359,7 +1371,6 @@
       <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1374,7 +1385,6 @@
       <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1389,7 +1399,6 @@
       <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1404,7 +1413,6 @@
       <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1419,7 +1427,6 @@
       <c r="D35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1434,7 +1441,6 @@
       <c r="D36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1449,7 +1455,9 @@
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1464,7 +1472,9 @@
       <c r="D38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1479,7 +1489,6 @@
       <c r="D39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1494,7 +1503,9 @@
       <c r="D40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1509,31 +1520,28 @@
       <c r="D41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
